--- a/vscard-tbl/vstbl.xlsx
+++ b/vscard-tbl/vstbl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuyizhou/xrsd/ly/export-table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuyizhou/vscard/vscard-tbl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F691E0-3D0C-4C4B-8B3E-B10E9F301FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22831342-0754-E548-BA1D-4FB586EE022F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7040" yWindow="-20800" windowWidth="34580" windowHeight="17880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="620" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vsbattle" sheetId="1" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:AE2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="24"/>

--- a/vscard-tbl/vstbl.xlsx
+++ b/vscard-tbl/vstbl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuyizhou/vscard/vscard-tbl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22831342-0754-E548-BA1D-4FB586EE022F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015C40C-2485-BB48-8717-976E813029B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="620" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36560" yWindow="1240" windowWidth="32120" windowHeight="19260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vsbattle" sheetId="1" r:id="rId1"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="24"/>
